--- a/Testcase/whitebox.xlsx
+++ b/Testcase/whitebox.xlsx
@@ -5,15 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SE\HKI VII\tesing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\buiqu\OneDrive\Documents\GitHub\OnlineShop\Testcase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E34BBD-7DB6-443E-A910-D670F2220F2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{533ACF94-0F4F-4372-9A6B-AED6FD12588B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{F447E99F-3C29-4F89-8251-B309076B807F}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
+    <sheet name="AddNewAccount" sheetId="2" r:id="rId2"/>
+    <sheet name="AddNewMerchandise" sheetId="3" r:id="rId3"/>
+    <sheet name="AddNewMerchandiseCategory" sheetId="4" r:id="rId4"/>
+    <sheet name="AddNewContent" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>public ActionResult Login(LoginModel model)
         {
@@ -79,14 +83,143 @@
         }
     }</t>
   </si>
+  <si>
+    <t>public ActionResult Create(User user)
+        {
+            SetStatusViewBag();
+            var dao = new UserDao();
+            if (ModelState.IsValid)
+            {
+                if (!dao.CheckUserName(user.UserName))
+                {
+                    long id = dao.Insert(user);
+                    if (id &gt; 0)
+                    {
+                        var result = dao.GetListUsers();
+                        return RedirectToAction("Index", "Account", result);
+                    }
+                    else
+                    {
+                        ModelState.AddModelError("", "Thêm User không thành công");
+                    }
+                }
+                else
+                {
+                    ModelState.AddModelError("", "Tài khoản bị trùng");
+                }
+            }
+            return View("Create");
+        }</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> public ActionResult Create(Product product)
+        {
+            var dao = new ProductDao();
+            var listProduct = dao.GetListProduct();
+            ViewBagCategory();
+            if (ModelState.IsValid)
+            {
+                product.MetaTitle = product.MetaTitle.Replace('/', '-');
+                product.MetaTitle = product.MetaTitle.Replace('.', '-');
+                product.MetaTitle = product.MetaTitle.Replace(',', '-');
+                product.MetaTitle = product.MetaTitle.Replace('\'', '-');
+                product.MetaTitle += listProduct.Count();
+                product.Status = true;
+                long id = dao.Insert(product);
+                    if (id &gt; 0)
+                    {
+                        var result = dao.GetListProduct();
+                        return RedirectToAction("Index", "Product", result);
+                    }
+                    else
+                    {
+                        ModelState.AddModelError("", "Thêm không thành công");
+                    }
+            }
+            else
+            {
+                ModelState.AddModelError("", "Form lỗi");
+            }
+            return View("Create");
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    }</t>
+    </r>
+  </si>
+  <si>
+    <t>public ActionResult Create(ProductCategory user)
+        {
+            var dao = new ProductCategoryDao();
+            user.Status = true;
+            ViewBagCategory();
+            if (ModelState.IsValid)
+            {
+                long id = dao.Insert(user);
+                if (id &gt; 0)
+                {
+                    var result = dao.ListAll();
+                    return RedirectToAction("Index", "ProductCategory", result);
+                }
+                else
+                {
+                    ModelState.AddModelError("", "Thêm không thành công");
+                }
+            }
+            else
+            {
+                ModelState.AddModelError("", "Form lỗi");
+            }
+            return View("Create");
+        }</t>
+  </si>
+  <si>
+    <t>public ActionResult Create(Content model)
+        {
+            if (ModelState.IsValid)
+            {
+                var session = (UserLogin)Session[CommonConstants.USER_SESSTION];
+                model.CreatedBy = session.UserName;
+                new ContentDao().Create(model);
+                return RedirectToAction("Index");
+            }
+            SetViewBag();
+            return View();
+        }</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -113,13 +246,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -158,7 +297,7 @@
         <xdr:cNvPr id="2" name="Speech Bubble: Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3987A46-A706-4436-BB1E-3E8354F94ADD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -219,7 +358,7 @@
         <xdr:cNvPr id="4" name="Speech Bubble: Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1BD9FBF-D217-473C-BCAA-F4DD766A5E81}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -280,7 +419,7 @@
         <xdr:cNvPr id="5" name="Right Brace 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CE0AA3A-94BB-45EE-9935-8D79B0AFAFFC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -338,7 +477,7 @@
         <xdr:cNvPr id="6" name="Right Brace 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6876A09-2B32-4383-90B0-8E44DC646E19}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -396,7 +535,7 @@
         <xdr:cNvPr id="7" name="Right Brace 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4AA847E-ED5E-4B0D-841C-076B85A88FC5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -454,7 +593,7 @@
         <xdr:cNvPr id="8" name="Speech Bubble: Rectangle 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63369A6F-4FA6-4576-B254-298633199E42}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -515,7 +654,7 @@
         <xdr:cNvPr id="9" name="Right Brace 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0E5935B-0AFD-4F29-9E4E-C554AE7CAC0F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -573,7 +712,7 @@
         <xdr:cNvPr id="11" name="Speech Bubble: Rectangle 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D833E67-8C90-41EE-B160-4437E110D714}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -634,7 +773,7 @@
         <xdr:cNvPr id="12" name="Right Brace 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FD76F09-7445-40E0-B302-5D838814617C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -692,7 +831,7 @@
         <xdr:cNvPr id="13" name="Speech Bubble: Rectangle 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94A7A224-0209-4696-960C-A856B1458F72}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -753,7 +892,7 @@
         <xdr:cNvPr id="14" name="Right Brace 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{618AFA3D-46CF-4398-80AB-6EEF18B62402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -811,7 +950,7 @@
         <xdr:cNvPr id="15" name="Speech Bubble: Rectangle 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EA80961-3261-43A3-AB13-A1EE60341FF8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -872,7 +1011,7 @@
         <xdr:cNvPr id="16" name="Right Brace 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD742E7B-0183-4B5A-B0E8-C9F16D5B4C0C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -930,7 +1069,7 @@
         <xdr:cNvPr id="17" name="Speech Bubble: Rectangle 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{492C4776-0BAD-42B1-B92E-2C7A1FD74CFD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -991,7 +1130,7 @@
         <xdr:cNvPr id="18" name="Right Brace 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1385FBE6-A835-46FC-BC56-9A5BBC346923}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1049,7 +1188,7 @@
         <xdr:cNvPr id="19" name="Speech Bubble: Rectangle 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCAF3320-8E74-4CE4-984A-341814E39BB8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1110,7 +1249,7 @@
         <xdr:cNvPr id="20" name="Right Brace 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE606C50-CBF4-4469-A7B2-369F0573CA6C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1168,7 +1307,7 @@
         <xdr:cNvPr id="21" name="Speech Bubble: Rectangle 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1B95458-EED5-42FF-B297-4BC4B8923BAD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1229,7 +1368,7 @@
         <xdr:cNvPr id="22" name="Right Brace 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05FC5020-CF49-482B-A324-F40A4A79BE78}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1287,7 +1426,7 @@
         <xdr:cNvPr id="23" name="Speech Bubble: Rectangle 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2F6DCC3-DC54-4012-BA75-F41BE31951D5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1348,7 +1487,7 @@
         <xdr:cNvPr id="24" name="Right Brace 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B21F33C-513B-4632-B5FB-220A45D7CE46}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1406,7 +1545,7 @@
         <xdr:cNvPr id="25" name="Speech Bubble: Rectangle 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{222D1A76-2BD1-434A-9D63-3C6F9A4D8101}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1467,7 +1606,7 @@
         <xdr:cNvPr id="30" name="Right Brace 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EA92831-EE69-4CB0-9911-DF40057170AC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1525,7 +1664,7 @@
         <xdr:cNvPr id="31" name="Speech Bubble: Rectangle 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA4203C7-ADA1-4482-A511-297C02164031}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1586,7 +1725,7 @@
         <xdr:cNvPr id="32" name="Right Brace 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A03AE009-6F3A-475C-ADF5-C35443D95134}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1644,7 +1783,7 @@
         <xdr:cNvPr id="33" name="Speech Bubble: Rectangle 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B984618B-86FB-4E50-8D4C-A8E46B7609F0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1705,7 +1844,7 @@
         <xdr:cNvPr id="36" name="Right Brace 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5568AF6-7A69-4FC9-9CB9-EDE8F57583AE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1763,7 +1902,7 @@
         <xdr:cNvPr id="37" name="Speech Bubble: Rectangle 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A45335A4-4048-460D-8CDE-A660C32F7549}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1824,7 +1963,7 @@
         <xdr:cNvPr id="38" name="Right Brace 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD15E780-C49E-44F6-AFE6-FA92B1534B68}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1882,7 +2021,7 @@
         <xdr:cNvPr id="39" name="Speech Bubble: Rectangle 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FF893D1-6F29-41C5-98FA-400DE5ABAFF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1943,7 +2082,7 @@
         <xdr:cNvPr id="41" name="Right Brace 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DB5EBC1-B4C2-4FA0-8956-CBAD8F03AC1E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2001,7 +2140,7 @@
         <xdr:cNvPr id="42" name="Speech Bubble: Rectangle 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0924602-E6B9-47A4-8D3E-E69A77AAA605}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2062,7 +2201,7 @@
         <xdr:cNvPr id="43" name="Right Brace 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD7CA718-AC7E-4684-88E9-A5D890E01D56}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2120,7 +2259,7 @@
         <xdr:cNvPr id="44" name="Speech Bubble: Rectangle 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C43734C-952D-4B66-BEB1-4F1813A6E4B5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2181,7 +2320,7 @@
         <xdr:cNvPr id="45" name="Right Brace 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F48C329-E4E4-4368-B439-EF0F76D06A37}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2239,7 +2378,7 @@
         <xdr:cNvPr id="46" name="Speech Bubble: Rectangle 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F43583A-4965-4D68-935B-ED22EB22BB49}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2300,7 +2439,7 @@
         <xdr:cNvPr id="49" name="Right Brace 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8AE78C7-9C4F-49A6-89F5-074448733921}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2358,7 +2497,7 @@
         <xdr:cNvPr id="50" name="Speech Bubble: Rectangle 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{500FCCE5-E521-446E-B56D-0797A78A5CAC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2424,7 +2563,7 @@
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4597EEDC-958D-4693-A8DD-95DFB896A6F2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2445,23 +2584,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2469,6 +2595,4429 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>192846</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>604326</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Speech Bubble: Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CFB5375-955D-4880-B77D-DC4AAAC3A7FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5069646" y="416755"/>
+          <a:ext cx="411480" cy="235048"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>80304</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>138918</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>209844</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>131298</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Right Brace 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9B45EF1-501F-44D2-9EAB-76544EE70730}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4957104" y="502333"/>
+          <a:ext cx="129540" cy="355796"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>191088</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>602568</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Speech Bubble: Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B853981-9712-4443-9AA5-F71F8D051464}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5067888" y="742071"/>
+          <a:ext cx="411480" cy="235047"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>103164</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9378</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>171744</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>47478</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Right Brace 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93DA1DC4-C292-45AE-95BC-DEBEEEC6FD5B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4979964" y="917916"/>
+          <a:ext cx="68580" cy="219808"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>191088</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>602568</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Speech Bubble: Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEF2D2F9-DF95-4548-9BA8-4B106EBF50F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5067888" y="1083798"/>
+          <a:ext cx="411480" cy="233876"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>103164</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>163536</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>171744</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>18756</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Right Brace 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A375CC6-EF69-4394-A08A-E8647EE2D8B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4979964" y="1253782"/>
+          <a:ext cx="68580" cy="218636"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>189330</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>142434</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>600810</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>12894</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Speech Bubble: Rectangle 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B32E481F-2916-45A8-A039-89ECCDF41366}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5066130" y="1414388"/>
+          <a:ext cx="411480" cy="233875"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>107268</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>118986</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>175848</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>155914</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Right Brace 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FDD45EF-ADE4-4A4C-AB20-B83BB3AE51FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4984068" y="1572648"/>
+          <a:ext cx="68580" cy="218635"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>198708</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>62718</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>588</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>116058</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Speech Bubble: Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB289418-A827-40E4-8344-0B8364D62EA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5075508" y="1698087"/>
+          <a:ext cx="411480" cy="235048"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>110784</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>50994</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>179364</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>89094</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Right Brace 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DBDE5AE-C4F8-43FA-8A01-9E94908BD5C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4987584" y="1868071"/>
+          <a:ext cx="68580" cy="219808"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>192846</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>179948</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>604326</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>51581</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Speech Bubble: Rectangle 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0211751C-42CA-4D56-8238-857A875EBFBE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5069646" y="1997025"/>
+          <a:ext cx="411480" cy="235048"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>6</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>104922</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>168224</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>173502</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>24617</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Right Brace 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40809A2F-2EA4-4EA4-8910-714849E630EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4981722" y="2167009"/>
+          <a:ext cx="68580" cy="219808"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>199293</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>105510</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1173</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>158850</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Speech Bubble: Rectangle 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38602893-58BC-487A-BDA8-221BE60EE576}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5076093" y="2286002"/>
+          <a:ext cx="411480" cy="235048"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>7</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>111369</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>64476</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>179949</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>102576</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Right Brace 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C34C7226-8C74-42CE-88E7-56183DD5BD8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4988169" y="2426676"/>
+          <a:ext cx="68580" cy="219808"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>199295</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>11725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1175</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>65066</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Speech Bubble: Rectangle 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7CD2F47-2313-46C8-9A85-9F8849EDF822}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5076095" y="2555633"/>
+          <a:ext cx="411480" cy="235048"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>8</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>111371</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>179951</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38102</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Right Brace 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55B0DEB0-41FC-4C39-9F88-4E8A4A491E1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4988171" y="2725617"/>
+          <a:ext cx="68580" cy="219808"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>199294</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>164124</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1174</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>35756</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Speech Bubble: Rectangle 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F28A527-2B26-48D8-A30E-07F98CF66E53}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5076094" y="2889739"/>
+          <a:ext cx="411480" cy="235048"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>9</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>111370</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>179950</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>8793</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Right Brace 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04BBDAFC-78D3-4A7F-9332-B65FDB2C3BC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4988170" y="3059723"/>
+          <a:ext cx="68580" cy="219808"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>199295</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>93784</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1175</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>147124</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Speech Bubble: Rectangle 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{314EAC02-29F6-450A-9226-CC1EC1D0F7C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5076095" y="3546230"/>
+          <a:ext cx="411480" cy="235048"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>10</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>111371</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>82060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>179951</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>120160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Right Brace 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC00B713-3683-40A7-AA7D-E1C6DCC67370}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4988171" y="3716214"/>
+          <a:ext cx="68580" cy="219808"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>187570</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>35169</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>599050</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>88510</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Speech Bubble: Rectangle 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D51BE636-D06F-40C0-84C3-45817A2F142A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5064370" y="3851031"/>
+          <a:ext cx="411480" cy="235048"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>11</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>99646</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>23446</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>168226</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>61546</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Right Brace 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D25C03DD-7BA6-4CCB-895A-B2212ACE6753}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4976446" y="4021015"/>
+          <a:ext cx="68580" cy="219808"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>199293</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1173</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>129541</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Speech Bubble: Rectangle 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F997045-6DB4-49A0-A3FA-F7DF00DB7EBB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5076093" y="4437185"/>
+          <a:ext cx="411480" cy="235048"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>12</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>111369</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>64477</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>179949</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>102577</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Right Brace 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BC54B22-C23B-4137-A1D3-89E6F43E0E27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4988169" y="4607169"/>
+          <a:ext cx="68580" cy="219808"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>186984</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>598464</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>44548</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Speech Bubble: Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82EC28AF-8A20-4AF0-B4AC-B6E13D62C161}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5673384" y="906780"/>
+          <a:ext cx="411480" cy="235048"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>25204</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Right Brace 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14C9FF8A-D378-4317-BCE5-34C24604D449}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5615940" y="939604"/>
+          <a:ext cx="53340" cy="470096"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>194604</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>606084</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>97888</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Speech Bubble: Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFB2E03E-4446-4C4F-B609-9AEA1F73D3F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5681004" y="1325880"/>
+          <a:ext cx="411480" cy="235048"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>32824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>69752</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Right Brace 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4288FB9-0422-43B5-BDAC-A2A16EF44714}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5615940" y="1495864"/>
+          <a:ext cx="68580" cy="219808"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>202224</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4104</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>90268</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Speech Bubble: Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46D8C286-16CB-4F09-8E1B-23ECA6221FE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5688624" y="2232660"/>
+          <a:ext cx="411480" cy="235048"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>139504</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Right Brace 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{161F1AD0-FB96-4AD6-9FA9-5CAA7375312E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5593080" y="1785424"/>
+          <a:ext cx="99060" cy="1270196"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>202224</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4104</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>113128</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Speech Bubble: Rectangle 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8222F234-656D-4F86-9D86-978DA5BC12AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5688624" y="2987040"/>
+          <a:ext cx="411480" cy="235048"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>48064</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>84992</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Right Brace 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7ACFAF5-977C-44CE-8CAA-6DA7704F717A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5593080" y="3157024"/>
+          <a:ext cx="68580" cy="219808"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>202224</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4104</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>143608</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Speech Bubble: Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C024F08E-D1B4-4B27-AFDA-39C4D0DEF3F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5688624" y="3383280"/>
+          <a:ext cx="411480" cy="235048"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Right Brace 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D24D3A40-D17E-4E21-A4EA-4E1988E8C1A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5608320" y="3474720"/>
+          <a:ext cx="68580" cy="403860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>194604</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>606084</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>181708</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Speech Bubble: Rectangle 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{125ECABE-2D90-45E4-AB8B-FB7A2DC3DEB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5681004" y="3787140"/>
+          <a:ext cx="411480" cy="235048"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>6</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>116644</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>153572</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Right Brace 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{330087A6-176B-45F0-B27A-2F18B65CB04B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5615940" y="3957124"/>
+          <a:ext cx="68580" cy="219808"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>202224</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4104</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>59788</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Speech Bubble: Rectangle 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7948F099-A157-4664-A494-1A232F9AD6CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5688624" y="4213860"/>
+          <a:ext cx="411480" cy="235048"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>7</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>177604</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>31652</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Right Brace 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCDC4481-C10C-4D9F-A1C4-B09E6B7DD539}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5623560" y="4383844"/>
+          <a:ext cx="68580" cy="219808"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>209844</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>11724</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>52168</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Speech Bubble: Rectangle 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{477B0EB4-2E45-4431-B09E-2AF95DE31E0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5696244" y="4754880"/>
+          <a:ext cx="411480" cy="235048"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>8</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>169984</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>24032</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Right Brace 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A70CA12-75C3-48CC-95DF-72A44DFACEB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5631180" y="4924864"/>
+          <a:ext cx="68580" cy="219808"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>209844</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>11724</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>82648</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Speech Bubble: Rectangle 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{134C1477-2872-427C-9D9E-F5559F86F55D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5696244" y="5151120"/>
+          <a:ext cx="411480" cy="235048"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>9</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>17584</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>54512</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Right Brace 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B67DBF03-BEDB-46C6-B940-451A0D528152}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5631180" y="5321104"/>
+          <a:ext cx="68580" cy="219808"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>202224</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4104</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>90268</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Speech Bubble: Rectangle 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42BCBF64-7A2E-4997-AE79-30360B48815A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5688624" y="5524500"/>
+          <a:ext cx="411480" cy="235048"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>10</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>25204</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>62132</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Right Brace 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CCC5FBC-26E1-4B0A-82A3-ABB348CDD98A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5623560" y="5694484"/>
+          <a:ext cx="68580" cy="219808"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>186321</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>59634</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>597801</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>109152</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Speech Bubble: Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09BF4BB5-83DD-4CF2-830C-E63827FF3DC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6891921" y="801756"/>
+          <a:ext cx="411480" cy="235048"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>132521</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>92457</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>182216</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>139147</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Right Brace 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E134C27-5D11-412F-AAF5-CCE349E2C289}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6838121" y="834579"/>
+          <a:ext cx="49695" cy="603281"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>193941</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>134177</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>605421</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>183695</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Speech Bubble: Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8F6FC60-63D8-457A-A718-FA94645D3838}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6899541" y="1247360"/>
+          <a:ext cx="411480" cy="235048"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>122251</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>151761</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>190831</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>508</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Right Brace 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25596BF2-09FC-42E8-BF59-17B214ED9B2F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6827851" y="1450474"/>
+          <a:ext cx="68580" cy="219808"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>201561</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>93427</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>3441</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>142944</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Speech Bubble: Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{059E3DC9-04DF-4052-84CC-FAF33B84588F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6907161" y="1577670"/>
+          <a:ext cx="411480" cy="235048"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>132522</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>30505</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>191824</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>106019</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Right Brace 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7ABC5330-89D0-4333-AA59-79AB7F055312}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6838122" y="1700279"/>
+          <a:ext cx="59302" cy="261044"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>208187</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>26173</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>10067</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>75690</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Speech Bubble: Rectangle 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDB41D65-D147-459C-B24E-99846512ABDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6913787" y="1881477"/>
+          <a:ext cx="411480" cy="235048"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>136405</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>168282</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>204985</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>18629</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Right Brace 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5BDE6F6-3CED-4DC1-9C35-3AC7C2069A5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6842005" y="2007592"/>
+          <a:ext cx="68580" cy="218209"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>222582</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>29647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>24462</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>79164</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Speech Bubble: Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E39F4B5C-82BE-4FD7-AE25-3F062CF1991F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6928182" y="2236819"/>
+          <a:ext cx="411480" cy="233448"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>142278</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>119487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>210858</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152286</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Right Brace 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55220943-66F1-4F2E-A4C3-A660A845C8D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6847878" y="2326659"/>
+          <a:ext cx="68580" cy="400661"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>204451</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>141273</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>6331</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>5259</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Speech Bubble: Rectangle 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F852A083-8532-4C73-A202-9D027CCD1B6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6910051" y="2716307"/>
+          <a:ext cx="411480" cy="231849"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>6</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>139387</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>125725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>207967</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>160003</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Right Brace 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B1C4617-45FF-4754-9A69-D0040C5C9047}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6844987" y="2884691"/>
+          <a:ext cx="68580" cy="218209"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>212072</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>174311</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>13952</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>39898</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Speech Bubble: Rectangle 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B034751-8281-4E6F-8518-D99119CE0732}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6917672" y="3117208"/>
+          <a:ext cx="411480" cy="233449"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>7</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>147008</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>158765</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>215588</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9112</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Right Brace 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38AAC4BC-D3BB-4E84-BE76-D9D43FC22BB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6852608" y="3285593"/>
+          <a:ext cx="68580" cy="218209"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>209181</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>58892</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>11061</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>108410</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Speech Bubble: Rectangle 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B34056B-7DE0-430B-9860-B7AE2EE5B732}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6914781" y="4105375"/>
+          <a:ext cx="411480" cy="233449"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>9</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>144117</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>44945</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>212697</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>77623</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Right Brace 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{677139E6-3E77-4DEB-8AD8-54815C60DA32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6849717" y="4275359"/>
+          <a:ext cx="68580" cy="216609"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>217327</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>163800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19207</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>29387</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Speech Bubble: Rectangle 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33307D9A-30B0-4D34-826C-D125675A2218}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6922927" y="3658490"/>
+          <a:ext cx="411480" cy="233449"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>8</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152263</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>148254</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>220843</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>182532</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Right Brace 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAE9FFD0-0A57-4762-9939-5E63C76669F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6857863" y="3826875"/>
+          <a:ext cx="68580" cy="218209"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>214436</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>53637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>16316</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>103155</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Speech Bubble: Rectangle 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4DE123B-6839-4F51-AA88-4F83EC7662DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6920036" y="4467982"/>
+          <a:ext cx="411480" cy="233449"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>10</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>149372</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>39690</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>217952</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>72368</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Right Brace 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CC4C9F4-98B1-4C6E-AA7D-CDEAB3F30B8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6854972" y="4637966"/>
+          <a:ext cx="68580" cy="216609"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>86930</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>498410</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>172489</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Speech Bubble: Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0445AA61-2896-4134-9733-677D1AC0F56E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7402130" y="853440"/>
+          <a:ext cx="411480" cy="233449"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>86163</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>75205</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Right Brace 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C3B54B7-B58C-4C77-B19B-5D1AF2CBA149}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7299960" y="1000563"/>
+          <a:ext cx="90445" cy="249117"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>94550</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>8065</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>506030</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>58634</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Speech Bubble: Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{508CA530-8239-42CC-A09B-AF183B308357}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7409750" y="1471105"/>
+          <a:ext cx="411480" cy="233449"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>57180</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Right Brace 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DDD1663-BFD7-4D16-856D-7EC6E09243BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7307580" y="1520220"/>
+          <a:ext cx="76200" cy="506700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>86930</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76097</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>498410</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>126665</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Speech Bubble: Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{621F4541-4966-477F-AD2E-E7B15ACEEF9E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7402130" y="1904897"/>
+          <a:ext cx="411480" cy="233448"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>78316</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>178585</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>489796</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>46273</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Speech Bubble: Rectangle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA0A283D-7170-412A-93F9-28687233AF2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7393516" y="2190265"/>
+          <a:ext cx="411480" cy="233448"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>608514</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38754</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>67494</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>74083</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Right Brace 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{107E1B23-6342-4E1E-BE2E-4BAF91DE2B24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7314114" y="2050434"/>
+          <a:ext cx="68580" cy="218209"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>85091</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>92721</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>496571</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>143289</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Speech Bubble: Rectangle 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D827B414-F6FD-443B-93A5-18F5B01453D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7400291" y="2470161"/>
+          <a:ext cx="411480" cy="233448"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>4787</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>129221</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>50506</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Right Brace 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB0EA071-D05B-4E8A-A4D7-E6D2AE9E96C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7319987" y="2323781"/>
+          <a:ext cx="45719" cy="221299"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1896</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>54793</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>70476</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>90122</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Right Brace 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5794BDC1-AC4C-4FC5-9932-3478FC5F5DE1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7317096" y="2615113"/>
+          <a:ext cx="68580" cy="218209"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2778,741 +7327,741 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3550,4 +8099,1246 @@
     </mc:AlternateContent>
   </oleObjects>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9271395-F148-4A06-A54C-9A64BD155604}">
+  <dimension ref="B2:I32"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:I27"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCDF6171-49AE-49C5-B3BB-57B5E2C86979}">
+  <dimension ref="C4:J41"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="4" spans="3:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+    </row>
+    <row r="31" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+    </row>
+    <row r="33" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+    </row>
+    <row r="34" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+    </row>
+    <row r="35" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+    </row>
+    <row r="36" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+    </row>
+    <row r="37" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+    </row>
+    <row r="38" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+    </row>
+    <row r="39" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+    </row>
+    <row r="40" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+    </row>
+    <row r="41" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C4:J34"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA4CCF2E-8DF7-4B4F-99B0-D59F5391EE4D}">
+  <dimension ref="D4:L34"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14:N14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="4" spans="4:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+    </row>
+    <row r="29" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+    </row>
+    <row r="30" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+    </row>
+    <row r="31" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+    </row>
+    <row r="32" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+    </row>
+    <row r="33" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+    </row>
+    <row r="34" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D4:L28"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{309E57FA-2DC4-4770-A679-98848C96FB85}">
+  <dimension ref="E5:M16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="5" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+    </row>
+    <row r="8" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E5:M16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Testcase/whitebox.xlsx
+++ b/Testcase/whitebox.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\buiqu\OneDrive\Documents\GitHub\OnlineShop\Testcase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{533ACF94-0F4F-4372-9A6B-AED6FD12588B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC56B93D-E5B7-48CA-971A-A916123B0668}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{F447E99F-3C29-4F89-8251-B309076B807F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="1" activeTab="4" xr2:uid="{F447E99F-3C29-4F89-8251-B309076B807F}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -35,54 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>public ActionResult Login(LoginModel model)
-        {
-            if (ModelState.IsValid)
-            {
-                var dao = new UserDao();
-                var result = dao.Login(model.UserName, model.PassWord, true);
-                if (result == 1)
-                {
-                    var user = dao.GetByName(model.UserName);
-                    var userSesstion = new UserLogin();
-                    var listCredential = dao.GetListCredential(model.UserName);
-                    userSesstion.UserName = user.UserName;
-                    userSesstion.UserID = user.ID;
-                    userSesstion.GroupID = user.GroupID;
-                    Session.Add(
-CommonConstants.USER_CREDENTIAL, listCredential);
-                    Session.Add(
-CommonConstants.USER_SESSTION, userSesstion);
-                    return RedirectToAction("Index", "Home");
-                }
-                else if (result==0)
-                {
-                    ModelState.AddModelError("", "Tài khoản không tồn tại");
-                }
-                else if(result==-1)
-                {
-                    ModelState.AddModelError("", "Tài khoản đang bị khóa");
-                }
-                else if (result == -2)
-                {
-                    ModelState.AddModelError("", "Mật khẩu không đúng");
-                }
-                else if (result == -3)
-                {
-                    ModelState.AddModelError("", "Tài khoản của bạn 
-không có quyền đăng nhập");
-                }
-                else
-                {
-                    ModelState.AddModelError("", "Đăng nhập lỗi");
-                }
-            }
-            return View("Index");
-        }
-    }</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="57">
   <si>
     <t>public ActionResult Create(User user)
         {
@@ -205,12 +158,319 @@
             return View();
         }</t>
   </si>
+  <si>
+    <t>TestCase</t>
+  </si>
+  <si>
+    <t>Đầu vào</t>
+  </si>
+  <si>
+    <t>Kết quả</t>
+  </si>
+  <si>
+    <t>Loại</t>
+  </si>
+  <si>
+    <t>Đăng nhập thành công</t>
+  </si>
+  <si>
+    <t>Error: "Tài khoản không
+tồn tại"</t>
+  </si>
+  <si>
+    <t>Error: "Tài khoản của bạn không có quyền đăng nhập"</t>
+  </si>
+  <si>
+    <t>Error: "Tài khoản đang bị khóa"</t>
+  </si>
+  <si>
+    <t>Error: "Mật khẩu không đúng"</t>
+  </si>
+  <si>
+    <t>1-2-3-4</t>
+  </si>
+  <si>
+    <t>public ActionResult Login(LoginModel model)
+        {
+            if (ModelState.IsValid)
+            {
+                var dao = new UserDao();
+                var result = dao.Login(model.UserName, model.PassWord, true);
+                if (result == 1)
+                {
+                    var user = dao.GetByName(model.UserName);
+                    var userSesstion = new UserLogin();
+                    var listCredential = dao.GetListCredential(model.UserName);
+                    userSesstion.UserName = user.UserName;
+                    userSesstion.UserID = user.ID;
+                    userSesstion.GroupID = user.GroupID;
+                    Session.Add(
+CommonConstants.USER_CREDENTIAL, listCredential);
+                    Session.Add(
+CommonConstants.USER_SESSTION, userSesstion);
+                    return RedirectToAction("Index", "Home");
+                }
+                else if (result==0)
+                {
+                    ModelState.AddModelError("", "Tài khoản không tồn tại");
+                }
+                else if(result==-1)
+                {
+                    ModelState.AddModelError("", "Tài khoản đang bị khóa");
+                }
+                else if (result == -2)
+                {
+                    ModelState.AddModelError("", "Mật khẩu không đúng");
+                }
+                else if (result == -3)
+                {
+                    ModelState.AddModelError("", "Tài khoản của bạn 
+không có quyền đăng nhập");
+                }         
+           }
+            return View("Index");
+        }
+    }</t>
+  </si>
+  <si>
+    <t>1-2-3-5-6-13</t>
+  </si>
+  <si>
+    <t>1-2-3-5-7-8-13</t>
+  </si>
+  <si>
+    <t>1-2-3-5-7-9-10-13</t>
+  </si>
+  <si>
+    <t>1-2-3-5-7-9-11-12-13</t>
+  </si>
+  <si>
+    <t>Username: "",
+Password: ""</t>
+  </si>
+  <si>
+    <t>Username: "taikhoan",
+Password: "taikhoan"</t>
+  </si>
+  <si>
+    <t>Username: "testabc",
+Password: "123456"</t>
+  </si>
+  <si>
+    <t>Username: "admin",
+Password: "saimatkhau"</t>
+  </si>
+  <si>
+    <t>Username: "client",
+Password: "client"</t>
+  </si>
+  <si>
+    <t>Username: "admin",
+Password: "admin"</t>
+  </si>
+  <si>
+    <t>Error: "Vui lòng nhập tên đăng nhập"
+Error: "Vui lòng nhập mật khẩu đăng nhập"</t>
+  </si>
+  <si>
+    <r>
+      <t>1-13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="0"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+  </si>
+  <si>
+    <t>Tên tài khoản: "",
+Mật khẩu: "",
+Họ tên: "",
+Số điện thoại: "",
+Email: "",
+Địa chỉ: ""</t>
+  </si>
+  <si>
+    <r>
+      <t>1-2-11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="0"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+  </si>
+  <si>
+    <t>Tên tài khoản: "testabc",
+Mật khẩu: "123456",
+Họ tên: "An",
+Số điện thoại: "0963656463",
+Email: "4n@gmail.com",
+Địa chỉ: "Hà Nội"</t>
+  </si>
+  <si>
+    <t>Error log: "Tài khoản bị trùng"</t>
+  </si>
+  <si>
+    <t>Tên tài khoản: "newtest",
+Mật khẩu: "123456",
+Họ tên: "Mới",
+Số điện thoại: "0334555111",
+Email: "new@gmail.com",
+Địa chỉ: "Đà Lạt"</t>
+  </si>
+  <si>
+    <t>Thành công</t>
+  </si>
+  <si>
+    <t>Error log: "Tên tài khoản không được để trống",
+Error log: "The Mật khẩu field is required"</t>
+  </si>
+  <si>
+    <t>1-2-3-4-5-7-8-11</t>
+  </si>
+  <si>
+    <t>1-2-3-8-9-11</t>
+  </si>
+  <si>
+    <t>1-2-3-4-5-6</t>
+  </si>
+  <si>
+    <t>Error log: "Thêm user không thành công"</t>
+  </si>
+  <si>
+    <t>Error log: "Vui lòng điền thông tin"</t>
+  </si>
+  <si>
+    <t>Thêm content thành công</t>
+  </si>
+  <si>
+    <t>1-2-4-5</t>
+  </si>
+  <si>
+    <r>
+      <t>1-2-3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="0"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+  </si>
+  <si>
+    <t>Name: "test",
+MetaTitle: "test",
+Description: "test",
+Image: "/Data/files/hp-348-g5-i3-7020u-4gb-256gb-win10-7xj62pa-210172-600x600.jpg",
+CategoryID: "ABC",
+Detail: "test",
+Warranty: "12",
+MetaKeywords: "test",
+MetaDescriptions: "test",
+Status: "test",
+Tags: "test"</t>
+  </si>
+  <si>
+    <t>Name: "",
+MetaTitle: "",
+Description: "",
+Image: "",
+CategoryID: "",
+Detail: "",
+Warranty: "",
+MetaKeywords: "",
+MetaDescriptions: "",
+Status: "",
+Tags: ""</t>
+  </si>
+  <si>
+    <t>Tên sản phẩm: ""
+Mã sản phẩm: ""
+MetaTitle: ""
+Loại sản phẩm: ""
+Mô tả: ""
+Image: ""
+MoreImages: ""
+Giá bán: ""
+Giá khuyến mãi: ""
+Số lượng: ""
+Content: ""</t>
+  </si>
+  <si>
+    <t>Error log: "Tên sản phẩm không được để trống",
+Error log: "Meta title không được để trống",
+Error log: "Loại sản phẩm không được để trống"</t>
+  </si>
+  <si>
+    <t>1-2-8-9-10</t>
+  </si>
+  <si>
+    <t>Error log: "Thêm sản phẩm không thành công"</t>
+  </si>
+  <si>
+    <t>Thêm sản phẩm thành công</t>
+  </si>
+  <si>
+    <t>1-2-3-4-6-7-10</t>
+  </si>
+  <si>
+    <t>1-2-3-4-5</t>
+  </si>
+  <si>
+    <t>Tên sản phẩm: "ten san pham abc"
+Mã sản phẩm: "123"
+MetaTitle: "ten-san-pham-abc"
+Loại sản phẩm: "Samsung"
+Mô tả: "Mô tả"
+Image: "/Data/files/apple-macbook-air-2019-i5-16ghz-8gb-128gb-mvfm2sa-13-32-600x600.jpg"
+MoreImages: "/Data/files/apple-macbook-air-2019-i5-16ghz-8gb-128gb-mvfm2sa-13-32-600x600.jpg"
+Giá bán: "15.000.000"
+Giá khuyến mãi: "1.200.000"
+Số lượng: "10"
+Content: "test"</t>
+  </si>
+  <si>
+    <t>Name: "",
+MetaTitle: "",
+ParentID" "",
+ShowOnHome: ""</t>
+  </si>
+  <si>
+    <t>Error log: "Tên danh mục sản phẩm không được để trống",
+Error log: "Meta title không được để trống",
+Error log: "ParentID không được để trống",
+Error log: "Vui lòng chọn ShowOnHome"</t>
+  </si>
+  <si>
+    <t>Error log: "Thêm không thành công"</t>
+  </si>
+  <si>
+    <t>Thêm danh mục sản phẩm thành công</t>
+  </si>
+  <si>
+    <t>Name: "Wearable",
+MetaTitle: "Wearable",
+ParentID" "",
+ShowOnHome: "True"</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,6 +485,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -234,7 +506,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -242,14 +514,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -257,8 +560,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -639,15 +951,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>71719</xdr:colOff>
+      <xdr:colOff>65315</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>26446</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>218740</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>218741</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>174172</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -662,8 +974,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4948519" y="1640093"/>
-          <a:ext cx="147021" cy="332142"/>
+          <a:off x="4942115" y="1691960"/>
+          <a:ext cx="153426" cy="2553469"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst/>
@@ -697,15 +1009,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>56487</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>106241</xdr:rowOff>
+      <xdr:colOff>173083</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>100029</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>584563</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>149783</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -720,8 +1032,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5082540" y="1490840"/>
-          <a:ext cx="411480" cy="229048"/>
+          <a:off x="5049883" y="2690829"/>
+          <a:ext cx="411480" cy="234811"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst/>
@@ -758,30 +1070,149 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Right Brace 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4945380" y="4328160"/>
+          <a:ext cx="137160" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Speech Bubble: Rectangle 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5082540" y="4175760"/>
+          <a:ext cx="411480" cy="236220"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Right Brace 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4953000" y="3947160"/>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Right Brace 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4953000" y="4663440"/>
           <a:ext cx="137160" cy="243840"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
@@ -817,29 +1248,267 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Speech Bubble: Rectangle 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5082540" y="4526280"/>
+          <a:ext cx="411480" cy="236220"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>6</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Right Brace 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4953000" y="5059680"/>
+          <a:ext cx="137160" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Speech Bubble: Rectangle 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5074920" y="4914900"/>
+          <a:ext cx="411480" cy="236220"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>7</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Speech Bubble: Rectangle 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5082540" y="3802380"/>
+        <xdr:cNvPr id="20" name="Right Brace 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4953000" y="5440680"/>
+          <a:ext cx="137160" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Speech Bubble: Rectangle 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5074920" y="5295900"/>
           <a:ext cx="411480" cy="236220"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
@@ -877,30 +1546,30 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Right Brace 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4945380" y="4328160"/>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Right Brace 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4953000" y="5806440"/>
           <a:ext cx="137160" cy="243840"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
@@ -935,30 +1604,30 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Speech Bubble: Rectangle 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5082540" y="4175760"/>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Speech Bubble: Rectangle 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5074920" y="5661660"/>
           <a:ext cx="411480" cy="236220"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
@@ -986,7 +1655,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>9</a:t>
+            <a:t>9	</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -997,29 +1666,29 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="Right Brace 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4953000" y="4663440"/>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Right Brace 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4953000" y="6195060"/>
           <a:ext cx="137160" cy="243840"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
@@ -1054,30 +1723,30 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="Speech Bubble: Rectangle 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5082540" y="4526280"/>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Speech Bubble: Rectangle 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5074920" y="6050280"/>
           <a:ext cx="411480" cy="236220"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
@@ -1115,31 +1784,31 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="Right Brace 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4953000" y="5059680"/>
-          <a:ext cx="137160" cy="243840"/>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="Right Brace 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4968240" y="6606540"/>
+          <a:ext cx="121920" cy="388620"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst/>
@@ -1174,29 +1843,29 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="Speech Bubble: Rectangle 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5074920" y="4914900"/>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="Speech Bubble: Rectangle 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5074920" y="6507480"/>
           <a:ext cx="411480" cy="236220"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
@@ -1234,30 +1903,30 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="Right Brace 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4953000" y="5440680"/>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="Right Brace 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4960620" y="7117080"/>
           <a:ext cx="137160" cy="243840"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
@@ -1292,30 +1961,30 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="Speech Bubble: Rectangle 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5074920" y="5295900"/>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="Speech Bubble: Rectangle 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5082540" y="6972300"/>
           <a:ext cx="411480" cy="236220"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
@@ -1354,482 +2023,6 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="Right Brace 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4953000" y="5806440"/>
-          <a:ext cx="137160" cy="243840"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightBrace">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="Speech Bubble: Rectangle 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5074920" y="5661660"/>
-          <a:ext cx="411480" cy="236220"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>13	</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="Right Brace 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4953000" y="6195060"/>
-          <a:ext cx="137160" cy="243840"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightBrace">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="Speech Bubble: Rectangle 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5074920" y="6050280"/>
-          <a:ext cx="411480" cy="236220"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>14</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="Right Brace 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4968240" y="6606540"/>
-          <a:ext cx="121920" cy="388620"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightBrace">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="Speech Bubble: Rectangle 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5074920" y="6507480"/>
-          <a:ext cx="411480" cy="236220"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>15</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="Right Brace 31">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4960620" y="7117080"/>
-          <a:ext cx="137160" cy="243840"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightBrace">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="Speech Bubble: Rectangle 32">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5082540" y="6972300"/>
-          <a:ext cx="411480" cy="236220"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>16</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
@@ -1938,602 +2131,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>17</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>69244</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>132855</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="Right Brace 37">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4953000" y="8047053"/>
-          <a:ext cx="137160" cy="249141"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightBrace">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>109995</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>163334</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="Speech Bubble: Rectangle 38">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5074920" y="7902273"/>
-          <a:ext cx="411480" cy="238870"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>18</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>80685</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>160915</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>227706</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>134468</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="Right Brace 40">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4957485" y="2133150"/>
-          <a:ext cx="147021" cy="332142"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightBrace">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>196776</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>38557</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>608256</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>88311</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="Speech Bubble: Rectangle 41">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5073576" y="2010792"/>
-          <a:ext cx="411480" cy="229048"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>5</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>98611</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>26443</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>218740</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>17928</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="Right Brace 42">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4975411" y="2536561"/>
-          <a:ext cx="120129" cy="529367"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightBrace">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>17118</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>66871</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="Speech Bubble: Rectangle 43">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5082540" y="2614544"/>
-          <a:ext cx="411480" cy="235284"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>6</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>66261</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>178844</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>254600</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>72887</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="Right Brace 44">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4943061" y="3332861"/>
-          <a:ext cx="188339" cy="636165"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightBrace">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>203792</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>34268</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>5672</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>84023</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="Speech Bubble: Rectangle 45">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5080592" y="3373816"/>
-          <a:ext cx="411480" cy="235285"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>7</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>155383</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>33464</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="Right Brace 48">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4953000" y="8504253"/>
-          <a:ext cx="137160" cy="249141"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightBrace">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>10603</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>63943</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="Speech Bubble: Rectangle 49">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5074920" y="8359473"/>
-          <a:ext cx="411480" cy="238870"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>19</a:t>
+            <a:t>13</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2545,25 +2143,25 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>10</xdr:col>
-          <xdr:colOff>304800</xdr:colOff>
+          <xdr:colOff>472440</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>76200</xdr:rowOff>
+          <xdr:rowOff>160020</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>19</xdr:col>
-          <xdr:colOff>518160</xdr:colOff>
-          <xdr:row>35</xdr:row>
-          <xdr:rowOff>60960</xdr:rowOff>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>1074420</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>144780</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1025" name="Object 1" hidden="1">
+            <xdr:cNvPr id="1026" name="Object 2" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1025"/>
+                  <a14:compatExt spid="_x0000_s1026"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2618,7 +2216,7 @@
         <xdr:cNvPr id="2" name="Speech Bubble: Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CFB5375-955D-4880-B77D-DC4AAAC3A7FA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2679,7 +2277,7 @@
         <xdr:cNvPr id="3" name="Right Brace 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9B45EF1-501F-44D2-9EAB-76544EE70730}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2737,7 +2335,7 @@
         <xdr:cNvPr id="4" name="Speech Bubble: Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B853981-9712-4443-9AA5-F71F8D051464}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2798,7 +2396,7 @@
         <xdr:cNvPr id="5" name="Right Brace 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93DA1DC4-C292-45AE-95BC-DEBEEEC6FD5B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2856,7 +2454,7 @@
         <xdr:cNvPr id="6" name="Speech Bubble: Rectangle 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEF2D2F9-DF95-4548-9BA8-4B106EBF50F0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2917,7 +2515,7 @@
         <xdr:cNvPr id="7" name="Right Brace 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A375CC6-EF69-4394-A08A-E8647EE2D8B8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2975,7 +2573,7 @@
         <xdr:cNvPr id="8" name="Speech Bubble: Rectangle 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B32E481F-2916-45A8-A039-89ECCDF41366}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3036,7 +2634,7 @@
         <xdr:cNvPr id="9" name="Right Brace 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FDD45EF-ADE4-4A4C-AB20-B83BB3AE51FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3094,7 +2692,7 @@
         <xdr:cNvPr id="10" name="Speech Bubble: Rectangle 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB289418-A827-40E4-8344-0B8364D62EA5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3155,7 +2753,7 @@
         <xdr:cNvPr id="11" name="Right Brace 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DBDE5AE-C4F8-43FA-8A01-9E94908BD5C3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3199,29 +2797,29 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>192846</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>179948</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>62722</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>604326</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>51581</xdr:rowOff>
+      <xdr:rowOff>116063</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="12" name="Speech Bubble: Rectangle 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0211751C-42CA-4D56-8238-857A875EBFBE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5069646" y="1997025"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5069646" y="2061507"/>
           <a:ext cx="411480" cy="235048"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
@@ -3259,31 +2857,31 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>104922</xdr:colOff>
+      <xdr:colOff>99646</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>168224</xdr:rowOff>
+      <xdr:rowOff>168223</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>173502</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>24617</xdr:rowOff>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="13" name="Right Brace 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40809A2F-2EA4-4EA4-8910-714849E630EF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4981722" y="2167009"/>
-          <a:ext cx="68580" cy="219808"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4976446" y="2167008"/>
+          <a:ext cx="73856" cy="347591"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst/>
@@ -3317,30 +2915,30 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>199293</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>105510</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1173</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>158850</xdr:rowOff>
+      <xdr:colOff>193431</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>23447</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>604911</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76788</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="14" name="Speech Bubble: Rectangle 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38602893-58BC-487A-BDA8-221BE60EE576}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5076093" y="2286002"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5070231" y="2567355"/>
           <a:ext cx="411480" cy="235048"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
@@ -3378,30 +2976,30 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>111369</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>64476</xdr:rowOff>
+      <xdr:colOff>105507</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>164121</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>179949</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>102576</xdr:rowOff>
+      <xdr:colOff>174087</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>20514</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="15" name="Right Brace 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C34C7226-8C74-42CE-88E7-56183DD5BD8A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4988169" y="2426676"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4982307" y="2708029"/>
           <a:ext cx="68580" cy="219808"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
@@ -3436,30 +3034,30 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>199295</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>11725</xdr:rowOff>
+      <xdr:colOff>205156</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>5865</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1175</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>65066</xdr:rowOff>
+      <xdr:colOff>7036</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>59205</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="16" name="Speech Bubble: Rectangle 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7CD2F47-2313-46C8-9A85-9F8849EDF822}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5076095" y="2555633"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5081956" y="2913188"/>
           <a:ext cx="411480" cy="235048"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
@@ -3497,30 +3095,30 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>111371</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>2</xdr:rowOff>
+      <xdr:colOff>117232</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>175849</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>179951</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>38102</xdr:rowOff>
+      <xdr:colOff>185812</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>32242</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="17" name="Right Brace 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55B0DEB0-41FC-4C39-9F88-4E8A4A491E1B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4988171" y="2725617"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4994032" y="3083172"/>
           <a:ext cx="68580" cy="219808"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
@@ -3555,30 +3153,30 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>199294</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>164124</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1174</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>35756</xdr:rowOff>
+      <xdr:colOff>175848</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>164125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>587328</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>35757</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="18" name="Speech Bubble: Rectangle 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F28A527-2B26-48D8-A30E-07F98CF66E53}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5076094" y="2889739"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5052648" y="3434863"/>
           <a:ext cx="411480" cy="235048"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
@@ -3616,14 +3214,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>111370</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>87924</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>179950</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:colOff>156504</xdr:colOff>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>8793</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3631,15 +3229,15 @@
         <xdr:cNvPr id="19" name="Right Brace 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04BBDAFC-78D3-4A7F-9332-B65FDB2C3BC0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4988170" y="3059723"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4964724" y="3604847"/>
           <a:ext cx="68580" cy="219808"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
@@ -3674,30 +3272,30 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>199295</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>93784</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1175</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>147124</xdr:rowOff>
+      <xdr:colOff>193433</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>11722</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>604913</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>65063</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="20" name="Speech Bubble: Rectangle 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{314EAC02-29F6-450A-9226-CC1EC1D0F7C2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5076095" y="3546230"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5070233" y="3827584"/>
           <a:ext cx="411480" cy="235048"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
@@ -3735,30 +3333,30 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>111371</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>82060</xdr:rowOff>
+      <xdr:colOff>105509</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>181706</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>179951</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>120160</xdr:rowOff>
+      <xdr:colOff>174089</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="21" name="Right Brace 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC00B713-3683-40A7-AA7D-E1C6DCC67370}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4988171" y="3716214"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4982309" y="3997568"/>
           <a:ext cx="68580" cy="219808"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
@@ -3793,30 +3391,30 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>187570</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>35169</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>599050</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>88510</xdr:rowOff>
+      <xdr:colOff>199293</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>134816</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1173</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>6449</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="22" name="Speech Bubble: Rectangle 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D51BE636-D06F-40C0-84C3-45817A2F142A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5064370" y="3851031"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5076093" y="4314093"/>
           <a:ext cx="411480" cy="235048"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
@@ -3854,149 +3452,30 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>99646</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>23446</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>168226</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>61546</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="Right Brace 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D25C03DD-7BA6-4CCB-895A-B2212ACE6753}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4976446" y="4021015"/>
-          <a:ext cx="68580" cy="219808"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightBrace">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>199293</xdr:colOff>
+      <xdr:colOff>111369</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1173</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>129541</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="Speech Bubble: Rectangle 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F997045-6DB4-49A0-A3FA-F7DF00DB7EBB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5076093" y="4437185"/>
-          <a:ext cx="411480" cy="235048"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>12</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>111369</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>64477</xdr:rowOff>
+      <xdr:rowOff>123092</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>179949</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>102577</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="Right Brace 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BC54B22-C23B-4137-A1D3-89E6F43E0E27}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4988169" y="4607169"/>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>161193</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Right Brace 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4988169" y="4484077"/>
           <a:ext cx="68580" cy="219808"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
@@ -4028,6 +3507,74 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>198120</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>30479</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>618835</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>114300</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2049" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2049"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE459E02-59B0-4BB6-A6C7-10372C05A291}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -4051,7 +3598,7 @@
         <xdr:cNvPr id="2" name="Speech Bubble: Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82EC28AF-8A20-4AF0-B4AC-B6E13D62C161}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4112,7 +3659,7 @@
         <xdr:cNvPr id="3" name="Right Brace 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14C9FF8A-D378-4317-BCE5-34C24604D449}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4170,7 +3717,7 @@
         <xdr:cNvPr id="4" name="Speech Bubble: Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFB2E03E-4446-4C4F-B609-9AEA1F73D3F0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4231,7 +3778,7 @@
         <xdr:cNvPr id="5" name="Right Brace 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4288FB9-0422-43B5-BDAC-A2A16EF44714}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4289,7 +3836,7 @@
         <xdr:cNvPr id="6" name="Speech Bubble: Rectangle 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46D8C286-16CB-4F09-8E1B-23ECA6221FE7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4350,7 +3897,7 @@
         <xdr:cNvPr id="7" name="Right Brace 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{161F1AD0-FB96-4AD6-9FA9-5CAA7375312E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4408,7 +3955,7 @@
         <xdr:cNvPr id="8" name="Speech Bubble: Rectangle 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8222F234-656D-4F86-9D86-978DA5BC12AD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4469,7 +4016,7 @@
         <xdr:cNvPr id="9" name="Right Brace 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7ACFAF5-977C-44CE-8CAA-6DA7704F717A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4527,7 +4074,7 @@
         <xdr:cNvPr id="10" name="Speech Bubble: Rectangle 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C024F08E-D1B4-4B27-AFDA-39C4D0DEF3F7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4588,7 +4135,7 @@
         <xdr:cNvPr id="11" name="Right Brace 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D24D3A40-D17E-4E21-A4EA-4E1988E8C1A7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4646,7 +4193,7 @@
         <xdr:cNvPr id="12" name="Speech Bubble: Rectangle 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{125ECABE-2D90-45E4-AB8B-FB7A2DC3DEB0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4707,7 +4254,7 @@
         <xdr:cNvPr id="13" name="Right Brace 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{330087A6-176B-45F0-B27A-2F18B65CB04B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4765,7 +4312,7 @@
         <xdr:cNvPr id="14" name="Speech Bubble: Rectangle 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7948F099-A157-4664-A494-1A232F9AD6CB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4826,7 +4373,7 @@
         <xdr:cNvPr id="15" name="Right Brace 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCDC4481-C10C-4D9F-A1C4-B09E6B7DD539}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4884,7 +4431,7 @@
         <xdr:cNvPr id="16" name="Speech Bubble: Rectangle 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{477B0EB4-2E45-4431-B09E-2AF95DE31E0C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4945,7 +4492,7 @@
         <xdr:cNvPr id="17" name="Right Brace 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A70CA12-75C3-48CC-95DF-72A44DFACEB4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5003,7 +4550,7 @@
         <xdr:cNvPr id="18" name="Speech Bubble: Rectangle 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{134C1477-2872-427C-9D9E-F5559F86F55D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5064,7 +4611,7 @@
         <xdr:cNvPr id="19" name="Right Brace 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B67DBF03-BEDB-46C6-B940-451A0D528152}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5122,7 +4669,7 @@
         <xdr:cNvPr id="20" name="Speech Bubble: Rectangle 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42BCBF64-7A2E-4997-AE79-30360B48815A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5183,7 +4730,7 @@
         <xdr:cNvPr id="21" name="Right Brace 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CCC5FBC-26E1-4B0A-82A3-ABB348CDD98A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5223,6 +4770,74 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>68580</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>175260</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>1200695</xdr:colOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>160020</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3073" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s3073"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1CBA484-4116-44EF-BF5C-40E5C9262292}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -5246,7 +4861,7 @@
         <xdr:cNvPr id="2" name="Speech Bubble: Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09BF4BB5-83DD-4CF2-830C-E63827FF3DC6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5307,7 +4922,7 @@
         <xdr:cNvPr id="3" name="Right Brace 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E134C27-5D11-412F-AAF5-CCE349E2C289}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5365,7 +4980,7 @@
         <xdr:cNvPr id="4" name="Speech Bubble: Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8F6FC60-63D8-457A-A718-FA94645D3838}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5426,7 +5041,7 @@
         <xdr:cNvPr id="5" name="Right Brace 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25596BF2-09FC-42E8-BF59-17B214ED9B2F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5484,7 +5099,7 @@
         <xdr:cNvPr id="6" name="Speech Bubble: Rectangle 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{059E3DC9-04DF-4052-84CC-FAF33B84588F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5545,7 +5160,7 @@
         <xdr:cNvPr id="7" name="Right Brace 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7ABC5330-89D0-4333-AA59-79AB7F055312}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5603,7 +5218,7 @@
         <xdr:cNvPr id="8" name="Speech Bubble: Rectangle 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDB41D65-D147-459C-B24E-99846512ABDE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5664,7 +5279,7 @@
         <xdr:cNvPr id="9" name="Right Brace 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5BDE6F6-3CED-4DC1-9C35-3AC7C2069A5C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5722,7 +5337,7 @@
         <xdr:cNvPr id="10" name="Speech Bubble: Rectangle 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E39F4B5C-82BE-4FD7-AE25-3F062CF1991F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5783,7 +5398,7 @@
         <xdr:cNvPr id="11" name="Right Brace 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55220943-66F1-4F2E-A4C3-A660A845C8D4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5841,7 +5456,7 @@
         <xdr:cNvPr id="12" name="Speech Bubble: Rectangle 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F852A083-8532-4C73-A202-9D027CCD1B6A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5902,7 +5517,7 @@
         <xdr:cNvPr id="13" name="Right Brace 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B1C4617-45FF-4754-9A69-D0040C5C9047}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5960,7 +5575,7 @@
         <xdr:cNvPr id="14" name="Speech Bubble: Rectangle 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B034751-8281-4E6F-8518-D99119CE0732}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6021,7 +5636,7 @@
         <xdr:cNvPr id="15" name="Right Brace 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38AAC4BC-D3BB-4E84-BE76-D9D43FC22BB4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6079,7 +5694,7 @@
         <xdr:cNvPr id="16" name="Speech Bubble: Rectangle 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B34056B-7DE0-430B-9860-B7AE2EE5B732}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6140,7 +5755,7 @@
         <xdr:cNvPr id="17" name="Right Brace 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{677139E6-3E77-4DEB-8AD8-54815C60DA32}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6198,7 +5813,7 @@
         <xdr:cNvPr id="18" name="Speech Bubble: Rectangle 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33307D9A-30B0-4D34-826C-D125675A2218}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6259,7 +5874,7 @@
         <xdr:cNvPr id="19" name="Right Brace 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAE9FFD0-0A57-4762-9939-5E63C76669F8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6317,7 +5932,7 @@
         <xdr:cNvPr id="20" name="Speech Bubble: Rectangle 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4DE123B-6839-4F51-AA88-4F83EC7662DF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6378,7 +5993,7 @@
         <xdr:cNvPr id="21" name="Right Brace 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CC4C9F4-98B1-4C6E-AA7D-CDEAB3F30B8A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6418,6 +6033,74 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>68580</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>175260</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>15</xdr:col>
+          <xdr:colOff>1011472</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>160020</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4097" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s4097"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B14295B8-1D3C-4169-8252-163A22DD8316}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -6441,7 +6124,7 @@
         <xdr:cNvPr id="2" name="Speech Bubble: Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0445AA61-2896-4134-9733-677D1AC0F56E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6502,7 +6185,7 @@
         <xdr:cNvPr id="3" name="Right Brace 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C3B54B7-B58C-4C77-B19B-5D1AF2CBA149}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6560,7 +6243,7 @@
         <xdr:cNvPr id="4" name="Speech Bubble: Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{508CA530-8239-42CC-A09B-AF183B308357}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6621,7 +6304,7 @@
         <xdr:cNvPr id="5" name="Right Brace 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DDD1663-BFD7-4D16-856D-7EC6E09243BF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6679,7 +6362,7 @@
         <xdr:cNvPr id="6" name="Speech Bubble: Rectangle 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{621F4541-4966-477F-AD2E-E7B15ACEEF9E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6740,7 +6423,7 @@
         <xdr:cNvPr id="7" name="Speech Bubble: Rectangle 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA0A283D-7170-412A-93F9-28687233AF2A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6801,7 +6484,7 @@
         <xdr:cNvPr id="8" name="Right Brace 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{107E1B23-6342-4E1E-BE2E-4BAF91DE2B24}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6859,7 +6542,7 @@
         <xdr:cNvPr id="9" name="Speech Bubble: Rectangle 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D827B414-F6FD-443B-93A5-18F5B01453D5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6920,7 +6603,7 @@
         <xdr:cNvPr id="10" name="Right Brace 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB0EA071-D05B-4E8A-A4D7-E6D2AE9E96C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6978,7 +6661,7 @@
         <xdr:cNvPr id="12" name="Right Brace 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5794BDC1-AC4C-4FC5-9932-3478FC5F5DE1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7018,6 +6701,74 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>68580</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>175260</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>15</xdr:col>
+          <xdr:colOff>1988820</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>160020</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5121" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s5121"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB115C3F-B751-482F-8E18-BAA5B9D7EC08}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -7318,25 +7069,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3030588D-6F49-4426-B1D4-307FBF5CFE9C}">
-  <dimension ref="B2:N52"/>
+  <dimension ref="B2:N57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O58" sqref="O58"/>
+    <sheetView topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P54" sqref="P54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="7.109375" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" customWidth="1"/>
+    <col min="11" max="11" width="22.88671875" customWidth="1"/>
+    <col min="12" max="12" width="24.77734375" customWidth="1"/>
+    <col min="13" max="13" width="26.5546875" customWidth="1"/>
+    <col min="14" max="14" width="37.109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="B2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -7344,14 +7105,14 @@
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -7359,14 +7120,14 @@
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -7374,14 +7135,14 @@
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -7389,14 +7150,14 @@
       <c r="N5" s="1"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -7404,14 +7165,14 @@
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -7419,14 +7180,14 @@
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -7434,14 +7195,14 @@
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -7449,14 +7210,14 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -7464,14 +7225,14 @@
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -7479,14 +7240,14 @@
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -7494,14 +7255,14 @@
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -7509,14 +7270,14 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -7524,14 +7285,14 @@
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -7539,14 +7300,14 @@
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -7554,14 +7315,14 @@
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -7569,14 +7330,14 @@
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -7584,14 +7345,14 @@
       <c r="N18" s="1"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -7599,14 +7360,14 @@
       <c r="N19" s="1"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -7614,14 +7375,14 @@
       <c r="N20" s="1"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -7629,14 +7390,14 @@
       <c r="N21" s="1"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -7644,14 +7405,14 @@
       <c r="N22" s="1"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
@@ -7659,14 +7420,14 @@
       <c r="N23" s="1"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -7674,14 +7435,14 @@
       <c r="N24" s="1"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
@@ -7689,14 +7450,14 @@
       <c r="N25" s="1"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
@@ -7704,14 +7465,14 @@
       <c r="N26" s="1"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
@@ -7719,14 +7480,14 @@
       <c r="N27" s="1"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -7734,14 +7495,14 @@
       <c r="N28" s="1"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -7749,14 +7510,14 @@
       <c r="N29" s="1"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -7764,14 +7525,14 @@
       <c r="N30" s="1"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -7779,14 +7540,14 @@
       <c r="N31" s="1"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -7794,14 +7555,14 @@
       <c r="N32" s="1"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -7809,14 +7570,14 @@
       <c r="N33" s="1"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -7824,14 +7585,14 @@
       <c r="N34" s="1"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -7839,14 +7600,14 @@
       <c r="N35" s="1"/>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -7854,14 +7615,14 @@
       <c r="N36" s="1"/>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -7869,14 +7630,14 @@
       <c r="N37" s="1"/>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -7884,14 +7645,14 @@
       <c r="N38" s="1"/>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -7899,14 +7660,14 @@
       <c r="N39" s="1"/>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -7914,14 +7675,14 @@
       <c r="N40" s="1"/>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -7929,14 +7690,14 @@
       <c r="N41" s="1"/>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -7944,14 +7705,14 @@
       <c r="N42" s="1"/>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -7959,14 +7720,14 @@
       <c r="N43" s="1"/>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -7974,14 +7735,14 @@
       <c r="N44" s="1"/>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -7989,14 +7750,14 @@
       <c r="N45" s="1"/>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -8004,46 +7765,46 @@
       <c r="N46" s="1"/>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+    </row>
+    <row r="51" spans="2:14" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -8052,8 +7813,20 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K51" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L51" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M51" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N51" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" ht="33.6" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -8062,6 +7835,89 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
+      <c r="K52" s="4">
+        <v>1</v>
+      </c>
+      <c r="L52" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M52" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N52" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="K53" s="5">
+        <v>2</v>
+      </c>
+      <c r="L53" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M53" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N53" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" ht="50.4" x14ac:dyDescent="0.3">
+      <c r="K54" s="5">
+        <v>3</v>
+      </c>
+      <c r="L54" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M54" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N54" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" ht="50.4" x14ac:dyDescent="0.3">
+      <c r="K55" s="5">
+        <v>4</v>
+      </c>
+      <c r="L55" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M55" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N55" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" ht="67.2" x14ac:dyDescent="0.3">
+      <c r="K56" s="5">
+        <v>5</v>
+      </c>
+      <c r="L56" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M56" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N56" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="E57" s="3"/>
+      <c r="K57" s="6">
+        <v>6</v>
+      </c>
+      <c r="L57" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M57" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="N57" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8074,27 +7930,27 @@
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Visio.Drawing.15" shapeId="1025" r:id="rId4">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
+        <oleObject progId="Visio.Drawing.15" shapeId="1026" r:id="rId4">
+          <objectPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
+                <xdr:colOff>472440</xdr:colOff>
                 <xdr:row>1</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:rowOff>160020</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>19</xdr:col>
-                <xdr:colOff>518160</xdr:colOff>
-                <xdr:row>35</xdr:row>
-                <xdr:rowOff>60960</xdr:rowOff>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>1074420</xdr:colOff>
+                <xdr:row>25</xdr:row>
+                <xdr:rowOff>144780</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Visio.Drawing.15" shapeId="1025" r:id="rId4"/>
+        <oleObject progId="Visio.Drawing.15" shapeId="1026" r:id="rId4"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
@@ -8102,278 +7958,284 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9271395-F148-4A06-A54C-9A64BD155604}">
-  <dimension ref="B2:I32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9271395-F148-4A06-A54C-9A64BD155604}">
+  <dimension ref="B2:N33"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29:N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="11" max="11" width="15.44140625" customWidth="1"/>
+    <col min="12" max="12" width="31.6640625" customWidth="1"/>
+    <col min="13" max="13" width="22.44140625" customWidth="1"/>
+    <col min="14" max="14" width="24.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="B2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -8383,7 +8245,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:14" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -8392,8 +8254,20 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K29" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -8402,8 +8276,20 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K30" s="4">
+        <v>1</v>
+      </c>
+      <c r="L30" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N30" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -8412,8 +8298,20 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K31" s="5">
+        <v>2</v>
+      </c>
+      <c r="L31" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="N31" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -8422,280 +8320,851 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
+      <c r="K32" s="5">
+        <v>3</v>
+      </c>
+      <c r="L32" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N32" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="11:14" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="K33" s="5">
+        <v>4</v>
+      </c>
+      <c r="L33" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N33" s="5" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:I27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.15" shapeId="2049" r:id="rId4">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>198120</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>617220</xdr:colOff>
+                <xdr:row>23</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.15" shapeId="2049" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCDF6171-49AE-49C5-B3BB-57B5E2C86979}">
-  <dimension ref="C4:J41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCDF6171-49AE-49C5-B3BB-57B5E2C86979}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="C4:O41"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView topLeftCell="A38" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K56" sqref="K56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="12" max="12" width="8.88671875" customWidth="1"/>
+    <col min="13" max="13" width="37" customWidth="1"/>
+    <col min="14" max="14" width="28.44140625" customWidth="1"/>
+    <col min="15" max="15" width="19.21875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="4" spans="3:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+    </row>
+    <row r="6" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+    </row>
+    <row r="15" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+    </row>
+    <row r="16" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+    </row>
+    <row r="19" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+    </row>
+    <row r="20" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+    </row>
+    <row r="21" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+    </row>
+    <row r="22" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+    </row>
+    <row r="23" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+    </row>
+    <row r="24" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+    </row>
+    <row r="25" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+    </row>
+    <row r="26" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+    </row>
+    <row r="27" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+    </row>
+    <row r="28" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+    </row>
+    <row r="29" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+    </row>
+    <row r="30" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+    </row>
+    <row r="31" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+    </row>
+    <row r="32" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+    </row>
+    <row r="33" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+    </row>
+    <row r="34" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+    </row>
+    <row r="35" spans="3:15" ht="33.6" x14ac:dyDescent="0.3">
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="L35" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M35" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O35" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="3:15" ht="183" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="L36" s="4">
+        <v>1</v>
+      </c>
+      <c r="M36" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="N36" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="O36" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="3:15" ht="252" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="L37" s="5">
         <v>2</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-    </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-    </row>
-    <row r="21" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-    </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-    </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-    </row>
-    <row r="24" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-    </row>
-    <row r="25" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-    </row>
-    <row r="26" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-    </row>
-    <row r="27" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-    </row>
-    <row r="28" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-    </row>
-    <row r="29" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C29" s="2"/>
+      <c r="M37" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="N37" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="O37" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="3:15" ht="352.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="L38" s="5">
+        <v>3</v>
+      </c>
+      <c r="M38" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="N38" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="O38" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+    </row>
+    <row r="40" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+    </row>
+    <row r="41" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C4:J34"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.15" shapeId="3073" r:id="rId4">
+          <objectPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>68580</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>175260</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>1203960</xdr:colOff>
+                <xdr:row>28</xdr:row>
+                <xdr:rowOff>160020</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.15" shapeId="3073" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA4CCF2E-8DF7-4B4F-99B0-D59F5391EE4D}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="D4:Q34"/>
+  <sheetViews>
+    <sheetView topLeftCell="B11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q33" sqref="Q33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="14" max="14" width="18.33203125" customWidth="1"/>
+    <col min="15" max="15" width="30.33203125" customWidth="1"/>
+    <col min="16" max="16" width="25.109375" customWidth="1"/>
+    <col min="17" max="17" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="4:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+    </row>
+    <row r="5" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+    </row>
+    <row r="6" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+    </row>
+    <row r="7" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+    </row>
+    <row r="8" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+    </row>
+    <row r="9" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+    </row>
+    <row r="10" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+    </row>
+    <row r="11" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+    </row>
+    <row r="12" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+    </row>
+    <row r="13" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+    </row>
+    <row r="14" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+    </row>
+    <row r="15" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+    </row>
+    <row r="16" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+    </row>
+    <row r="17" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+    </row>
+    <row r="18" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+    </row>
+    <row r="19" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+    </row>
+    <row r="20" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+    </row>
+    <row r="21" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+    </row>
+    <row r="22" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+    </row>
+    <row r="23" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+    </row>
+    <row r="24" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+    </row>
+    <row r="25" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+    </row>
+    <row r="26" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+    </row>
+    <row r="27" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+    </row>
+    <row r="28" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+    </row>
+    <row r="29" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -8703,9 +9172,9 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
-    </row>
-    <row r="30" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C30" s="2"/>
+      <c r="K29" s="2"/>
+    </row>
+    <row r="30" spans="4:17" ht="33.6" x14ac:dyDescent="0.3">
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -8713,9 +9182,21 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
-    </row>
-    <row r="31" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C31" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="N30" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="O30" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P30" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q30" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="4:17" ht="151.19999999999999" x14ac:dyDescent="0.3">
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -8723,9 +9204,21 @@
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
-    </row>
-    <row r="32" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C32" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="N31" s="4">
+        <v>1</v>
+      </c>
+      <c r="O31" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="P31" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q31" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="4:17" ht="134.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -8733,9 +9226,21 @@
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
-    </row>
-    <row r="33" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C33" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="N32" s="5">
+        <v>2</v>
+      </c>
+      <c r="O32" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="P32" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q32" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="4:17" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -8743,9 +9248,21 @@
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
-    </row>
-    <row r="34" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C34" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="N33" s="5">
+        <v>3</v>
+      </c>
+      <c r="O33" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="P33" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q33" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -8753,433 +9270,7 @@
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
-    </row>
-    <row r="35" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-    </row>
-    <row r="37" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-    </row>
-    <row r="38" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-    </row>
-    <row r="39" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-    </row>
-    <row r="40" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-    </row>
-    <row r="41" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C4:J34"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA4CCF2E-8DF7-4B4F-99B0-D59F5391EE4D}">
-  <dimension ref="D4:L34"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14:N14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="4" spans="4:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-    </row>
-    <row r="5" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-    </row>
-    <row r="6" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-    </row>
-    <row r="7" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-    </row>
-    <row r="9" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-    </row>
-    <row r="10" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-    </row>
-    <row r="11" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-    </row>
-    <row r="12" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-    </row>
-    <row r="13" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-    </row>
-    <row r="14" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-    </row>
-    <row r="15" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-    </row>
-    <row r="16" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-    </row>
-    <row r="17" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-    </row>
-    <row r="18" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-    </row>
-    <row r="19" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-    </row>
-    <row r="20" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-    </row>
-    <row r="21" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-    </row>
-    <row r="22" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-    </row>
-    <row r="23" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-    </row>
-    <row r="24" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-    </row>
-    <row r="25" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-    </row>
-    <row r="26" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-    </row>
-    <row r="27" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-    </row>
-    <row r="28" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-    </row>
-    <row r="29" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-    </row>
-    <row r="30" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-    </row>
-    <row r="31" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-    </row>
-    <row r="32" spans="4:12" x14ac:dyDescent="0.3">
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-    </row>
-    <row r="33" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-    </row>
-    <row r="34" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
+      <c r="K34" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9187,158 +9278,263 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.15" shapeId="4097" r:id="rId3">
+          <objectPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>68580</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>175260</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>1013460</xdr:colOff>
+                <xdr:row>27</xdr:row>
+                <xdr:rowOff>160020</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.15" shapeId="4097" r:id="rId3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{309E57FA-2DC4-4770-A679-98848C96FB85}">
-  <dimension ref="E5:M16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{309E57FA-2DC4-4770-A679-98848C96FB85}">
+  <dimension ref="E5:Q26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="14" max="14" width="18.77734375" customWidth="1"/>
+    <col min="15" max="15" width="28.21875" customWidth="1"/>
+    <col min="16" max="16" width="33.77734375" customWidth="1"/>
+    <col min="17" max="17" width="23" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="5" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+    </row>
+    <row r="6" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+    </row>
+    <row r="7" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+    </row>
+    <row r="8" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+    </row>
+    <row r="9" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+    </row>
+    <row r="10" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+    </row>
+    <row r="11" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+    </row>
+    <row r="12" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+    </row>
+    <row r="13" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+    </row>
+    <row r="14" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+    </row>
+    <row r="15" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+    </row>
+    <row r="16" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+    </row>
+    <row r="24" spans="14:17" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="N24" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-    </row>
-    <row r="6" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-    </row>
-    <row r="7" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-    </row>
-    <row r="8" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
+      <c r="O24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P24" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="14:17" ht="197.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N25" s="4">
+        <v>1</v>
+      </c>
+      <c r="O25" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="P25" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q25" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="14:17" ht="264" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N26" s="5">
+        <v>2</v>
+      </c>
+      <c r="O26" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="P26" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q26" s="5" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E5:M16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.15" shapeId="5121" r:id="rId4">
+          <objectPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>68580</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>175260</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>1988820</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>160020</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.15" shapeId="5121" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
 </worksheet>
 </file>
--- a/Testcase/whitebox.xlsx
+++ b/Testcase/whitebox.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\buiqu\OneDrive\Documents\GitHub\OnlineShop\Testcase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC56B93D-E5B7-48CA-971A-A916123B0668}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE145BA1-B3B3-4A71-ABC2-DDBA9ABF6D33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="1" activeTab="4" xr2:uid="{F447E99F-3C29-4F89-8251-B309076B807F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="1" activeTab="1" xr2:uid="{F447E99F-3C29-4F89-8251-B309076B807F}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -7961,8 +7961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9271395-F148-4A06-A54C-9A64BD155604}">
   <dimension ref="B2:N33"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29:N32"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9313,7 +9313,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{309E57FA-2DC4-4770-A679-98848C96FB85}">
   <dimension ref="E5:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
